--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="474">
   <si>
     <t>Property</t>
   </si>
@@ -278,7 +278,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -696,6 +696,10 @@
   </si>
   <si>
     <t>Procedure.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4021,13 +4025,13 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4078,7 +4082,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4096,7 +4100,7 @@
         <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -4107,7 +4111,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4136,7 +4140,7 @@
         <v>132</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>134</v>
@@ -4177,19 +4181,19 @@
         <v>76</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4207,7 +4211,7 @@
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -4218,7 +4222,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4241,19 +4245,19 @@
         <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -4290,17 +4294,17 @@
         <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4318,21 +4322,21 @@
         <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>76</v>
@@ -4354,19 +4358,19 @@
         <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -4413,7 +4417,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4431,18 +4435,18 @@
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4465,13 +4469,13 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4522,7 +4526,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4540,7 +4544,7 @@
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4551,7 +4555,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4580,7 +4584,7 @@
         <v>132</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>134</v>
@@ -4621,19 +4625,19 @@
         <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4651,7 +4655,7 @@
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4662,7 +4666,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4688,23 +4692,23 @@
         <v>99</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>76</v>
@@ -4746,7 +4750,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4764,18 +4768,18 @@
         <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4798,16 +4802,16 @@
         <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4857,7 +4861,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4875,18 +4879,18 @@
         <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4912,14 +4916,14 @@
         <v>105</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>76</v>
@@ -4968,7 +4972,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4986,18 +4990,18 @@
         <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5020,17 +5024,17 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>76</v>
@@ -5079,7 +5083,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5097,18 +5101,18 @@
         <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5131,19 +5135,19 @@
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>76</v>
@@ -5192,7 +5196,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5210,21 +5214,21 @@
         <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>76</v>
@@ -5246,19 +5250,19 @@
         <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>76</v>
@@ -5287,7 +5291,7 @@
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>76</v>
@@ -5305,7 +5309,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5323,18 +5327,18 @@
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5357,13 +5361,13 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5414,7 +5418,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5432,7 +5436,7 @@
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -5443,7 +5447,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5472,7 +5476,7 @@
         <v>132</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>134</v>
@@ -5513,19 +5517,19 @@
         <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5543,7 +5547,7 @@
         <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5554,7 +5558,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5580,23 +5584,23 @@
         <v>99</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>76</v>
@@ -5638,7 +5642,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5656,18 +5660,18 @@
         <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5690,16 +5694,16 @@
         <v>86</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5749,7 +5753,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5767,18 +5771,18 @@
         <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5804,14 +5808,14 @@
         <v>105</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -5860,7 +5864,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5878,18 +5882,18 @@
         <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5912,17 +5916,17 @@
         <v>86</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
@@ -5971,7 +5975,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -5989,18 +5993,18 @@
         <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6023,19 +6027,19 @@
         <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>76</v>
@@ -6084,7 +6088,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6102,21 +6106,21 @@
         <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>76</v>
@@ -6138,19 +6142,19 @@
         <v>86</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>76</v>
@@ -6179,7 +6183,7 @@
       </c>
       <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>76</v>
@@ -6197,7 +6201,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6215,18 +6219,18 @@
         <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6249,13 +6253,13 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6306,7 +6310,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6324,7 +6328,7 @@
         <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -6335,7 +6339,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6364,7 +6368,7 @@
         <v>132</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>134</v>
@@ -6405,19 +6409,19 @@
         <v>76</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6435,7 +6439,7 @@
         <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -6446,7 +6450,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6472,23 +6476,23 @@
         <v>99</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>76</v>
@@ -6530,7 +6534,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6548,18 +6552,18 @@
         <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6582,16 +6586,16 @@
         <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6641,7 +6645,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6659,18 +6663,18 @@
         <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6696,14 +6700,14 @@
         <v>105</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6752,7 +6756,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6770,18 +6774,18 @@
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6804,17 +6808,17 @@
         <v>86</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -6863,7 +6867,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6881,18 +6885,18 @@
         <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6915,19 +6919,19 @@
         <v>86</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>76</v>
@@ -6976,7 +6980,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -6994,21 +6998,21 @@
         <v>76</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>76</v>
@@ -7030,19 +7034,19 @@
         <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>76</v>
@@ -7071,7 +7075,7 @@
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>76</v>
@@ -7089,7 +7093,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7107,18 +7111,18 @@
         <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7141,13 +7145,13 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7198,7 +7202,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7216,7 +7220,7 @@
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -7227,7 +7231,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7256,7 +7260,7 @@
         <v>132</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>134</v>
@@ -7297,19 +7301,19 @@
         <v>76</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7327,7 +7331,7 @@
         <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -7338,7 +7342,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7364,23 +7368,23 @@
         <v>99</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>76</v>
@@ -7422,7 +7426,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7440,18 +7444,18 @@
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7474,16 +7478,16 @@
         <v>86</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7533,7 +7537,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7551,18 +7555,18 @@
         <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7588,14 +7592,14 @@
         <v>105</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>76</v>
@@ -7644,7 +7648,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7662,18 +7666,18 @@
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7696,17 +7700,17 @@
         <v>86</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>76</v>
@@ -7755,7 +7759,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7773,18 +7777,18 @@
         <v>76</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7807,19 +7811,19 @@
         <v>86</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>76</v>
@@ -7868,7 +7872,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7886,21 +7890,21 @@
         <v>76</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>76</v>
@@ -7922,19 +7926,19 @@
         <v>86</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -7963,7 +7967,7 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>76</v>
@@ -7981,7 +7985,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -7999,18 +8003,18 @@
         <v>76</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8033,13 +8037,13 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8090,7 +8094,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8108,7 +8112,7 @@
         <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>
@@ -8119,7 +8123,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8148,7 +8152,7 @@
         <v>132</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>134</v>
@@ -8189,19 +8193,19 @@
         <v>76</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8219,7 +8223,7 @@
         <v>76</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>76</v>
@@ -8230,7 +8234,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8256,23 +8260,23 @@
         <v>99</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>76</v>
@@ -8314,7 +8318,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8332,18 +8336,18 @@
         <v>76</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8366,16 +8370,16 @@
         <v>86</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8425,7 +8429,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8443,18 +8447,18 @@
         <v>76</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8480,14 +8484,14 @@
         <v>105</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
@@ -8536,7 +8540,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8554,18 +8558,18 @@
         <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8588,17 +8592,17 @@
         <v>86</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>76</v>
@@ -8647,7 +8651,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8665,18 +8669,18 @@
         <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8699,19 +8703,19 @@
         <v>86</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
@@ -8760,7 +8764,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8778,18 +8782,18 @@
         <v>76</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8812,19 +8816,19 @@
         <v>86</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>76</v>
@@ -8873,7 +8877,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -8891,22 +8895,22 @@
         <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8925,16 +8929,16 @@
         <v>86</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8984,7 +8988,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>85</v>
@@ -8999,21 +9003,21 @@
         <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9036,16 +9040,16 @@
         <v>86</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9095,7 +9099,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9110,21 +9114,21 @@
         <v>97</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9147,16 +9151,16 @@
         <v>86</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9206,7 +9210,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9221,21 +9225,21 @@
         <v>97</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9258,16 +9262,16 @@
         <v>86</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9317,7 +9321,7 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9335,10 +9339,10 @@
         <v>76</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>76</v>
@@ -9346,7 +9350,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9369,16 +9373,16 @@
         <v>86</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9428,7 +9432,7 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9446,10 +9450,10 @@
         <v>76</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>76</v>
@@ -9457,7 +9461,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9480,13 +9484,13 @@
         <v>86</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9537,7 +9541,7 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -9552,10 +9556,10 @@
         <v>97</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
@@ -9566,7 +9570,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9589,13 +9593,13 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9646,7 +9650,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -9664,7 +9668,7 @@
         <v>76</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>76</v>
@@ -9675,7 +9679,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9704,7 +9708,7 @@
         <v>132</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>134</v>
@@ -9757,7 +9761,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -9775,7 +9779,7 @@
         <v>76</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>76</v>
@@ -9786,11 +9790,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9812,10 +9816,10 @@
         <v>131</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>134</v>
@@ -9870,7 +9874,7 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9899,7 +9903,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9925,16 +9929,16 @@
         <v>191</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>76</v>
@@ -9963,7 +9967,7 @@
       </c>
       <c r="X73" s="2"/>
       <c r="Y73" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>76</v>
@@ -9981,7 +9985,7 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -9996,21 +10000,21 @@
         <v>97</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10033,19 +10037,19 @@
         <v>86</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>76</v>
@@ -10094,7 +10098,7 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>85</v>
@@ -10109,21 +10113,21 @@
         <v>97</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10146,19 +10150,19 @@
         <v>76</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>76</v>
@@ -10207,7 +10211,7 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10225,7 +10229,7 @@
         <v>76</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>76</v>
@@ -10236,7 +10240,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10259,19 +10263,19 @@
         <v>86</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>76</v>
@@ -10320,7 +10324,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10338,10 +10342,10 @@
         <v>76</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
@@ -10349,7 +10353,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10375,13 +10379,13 @@
         <v>191</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10411,7 +10415,7 @@
       </c>
       <c r="X77" s="2"/>
       <c r="Y77" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>76</v>
@@ -10429,7 +10433,7 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -10444,13 +10448,13 @@
         <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>76</v>
@@ -10458,7 +10462,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10481,16 +10485,16 @@
         <v>86</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10540,7 +10544,7 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -10555,13 +10559,13 @@
         <v>97</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>76</v>
@@ -10569,7 +10573,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10595,13 +10599,13 @@
         <v>191</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -10631,7 +10635,7 @@
       </c>
       <c r="X79" s="2"/>
       <c r="Y79" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>76</v>
@@ -10649,7 +10653,7 @@
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -10667,18 +10671,18 @@
         <v>76</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10704,13 +10708,13 @@
         <v>191</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10740,7 +10744,7 @@
       </c>
       <c r="X80" s="2"/>
       <c r="Y80" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>76</v>
@@ -10758,7 +10762,7 @@
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -10776,7 +10780,7 @@
         <v>76</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>76</v>
@@ -10787,7 +10791,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10810,16 +10814,16 @@
         <v>76</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -10869,7 +10873,7 @@
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -10887,7 +10891,7 @@
         <v>76</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>76</v>
@@ -10898,7 +10902,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10924,13 +10928,13 @@
         <v>191</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -10960,7 +10964,7 @@
       </c>
       <c r="X82" s="2"/>
       <c r="Y82" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>76</v>
@@ -10978,7 +10982,7 @@
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -10996,7 +11000,7 @@
         <v>76</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>76</v>
@@ -11007,7 +11011,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11030,19 +11034,19 @@
         <v>76</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>76</v>
@@ -11091,7 +11095,7 @@
         <v>76</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11109,7 +11113,7 @@
         <v>76</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>76</v>
@@ -11120,7 +11124,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11146,13 +11150,13 @@
         <v>191</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11182,7 +11186,7 @@
       </c>
       <c r="X84" s="2"/>
       <c r="Y84" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>76</v>
@@ -11200,7 +11204,7 @@
         <v>76</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11218,7 +11222,7 @@
         <v>76</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>76</v>
@@ -11229,7 +11233,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11252,16 +11256,16 @@
         <v>76</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11311,7 +11315,7 @@
         <v>76</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11326,21 +11330,21 @@
         <v>97</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11363,13 +11367,13 @@
         <v>76</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11420,7 +11424,7 @@
         <v>76</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -11438,7 +11442,7 @@
         <v>76</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>76</v>
@@ -11449,7 +11453,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11472,13 +11476,13 @@
         <v>76</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11529,7 +11533,7 @@
         <v>76</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -11547,7 +11551,7 @@
         <v>76</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>76</v>
@@ -11558,7 +11562,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11587,7 +11591,7 @@
         <v>132</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>134</v>
@@ -11640,7 +11644,7 @@
         <v>76</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -11658,7 +11662,7 @@
         <v>76</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>76</v>
@@ -11669,11 +11673,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11695,10 +11699,10 @@
         <v>131</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>134</v>
@@ -11753,7 +11757,7 @@
         <v>76</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -11782,7 +11786,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11808,10 +11812,10 @@
         <v>191</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11842,7 +11846,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>76</v>
@@ -11860,7 +11864,7 @@
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -11878,7 +11882,7 @@
         <v>76</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>76</v>
@@ -11889,7 +11893,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11912,13 +11916,13 @@
         <v>76</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11969,7 +11973,7 @@
         <v>76</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>85</v>
@@ -11987,7 +11991,7 @@
         <v>76</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>76</v>
@@ -11998,7 +12002,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12021,19 +12025,19 @@
         <v>76</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>76</v>
@@ -12082,7 +12086,7 @@
         <v>76</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12100,7 +12104,7 @@
         <v>76</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>76</v>
@@ -12111,7 +12115,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12137,13 +12141,13 @@
         <v>191</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12173,7 +12177,7 @@
       </c>
       <c r="X93" s="2"/>
       <c r="Y93" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>76</v>
@@ -12191,7 +12195,7 @@
         <v>76</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -12209,7 +12213,7 @@
         <v>76</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>76</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-procedure.xlsx
@@ -925,7 +925,7 @@
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureCodesICHI_VS</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureCodesICHI_CS</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_Undefined_CS</t>
   </si>
   <si>
     <t>Procedure.code.text</t>
